--- a/data/animal ref.xlsx
+++ b/data/animal ref.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agalicrd/Documents/GitHub/Bnip3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\Bnip3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40D175D-C320-DD40-A5B6-61A46E7D279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E753C5-2326-476B-B37D-B37BE4540B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{0363A97B-EFE8-2240-9108-D0D12A6BBC53}"/>
+    <workbookView xWindow="105" yWindow="90" windowWidth="3315" windowHeight="15495" xr2:uid="{0363A97B-EFE8-2240-9108-D0D12A6BBC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1_17679</t>
   </si>
@@ -107,10 +107,7 @@
     <t>3_20291</t>
   </si>
   <si>
-    <t>4_AD03</t>
-  </si>
-  <si>
-    <t>(a.k.a. 13499</t>
+    <t>4_13499</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,135 +489,133 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
